--- a/Sprint0/07-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/07-09-2021/03_Product_Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\07-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53B090-DDE1-4180-9B88-155BD1F9E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA239E-351D-4249-8880-100DF3845A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -3035,9 +3035,9 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3580,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56" t="s">
@@ -3812,7 +3812,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D15" s="53">
         <v>13</v>

--- a/Sprint0/07-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/07-09-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\07-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA239E-351D-4249-8880-100DF3845A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E701F37-4F60-4615-AC8D-42CCDABC30B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -3037,7 +3037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3595,7 +3595,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="53">
         <v>20</v>
@@ -3606,8 +3606,8 @@
       <c r="F7" s="53">
         <v>2</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>35</v>
+      <c r="G7" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56" t="s">
